--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR5Lag12_전라선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR5Lag12_전라선.xlsx
@@ -63,9 +63,6 @@
     <t>DilatedRNN</t>
   </si>
   <si>
-    <t>NHITS</t>
-  </si>
-  <si>
     <t>TCN</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>MLP</t>
+  </si>
+  <si>
+    <t>NHITS</t>
   </si>
   <si>
     <t>unique_id</t>
@@ -670,25 +670,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>92224738703.76726</v>
+        <v>80307528016.13216</v>
       </c>
       <c r="C9">
-        <v>303685.2625725642</v>
+        <v>283385.8288908112</v>
       </c>
       <c r="D9">
-        <v>0.08713733905896266</v>
+        <v>0.07212541300613727</v>
       </c>
       <c r="E9">
-        <v>191430.1302083333</v>
+        <v>202645.1458333333</v>
       </c>
       <c r="F9">
-        <v>0.2062980843555075</v>
+        <v>0.2219296466788718</v>
       </c>
       <c r="G9">
-        <v>104400.65625</v>
+        <v>142288.21875</v>
       </c>
       <c r="H9">
-        <v>0.1318316101489665</v>
+        <v>0.1754875343742505</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -696,25 +696,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>80307528016.13216</v>
+        <v>152767657101.0889</v>
       </c>
       <c r="C10">
-        <v>283385.8288908112</v>
+        <v>390855.0333577513</v>
       </c>
       <c r="D10">
-        <v>0.07212541300613727</v>
+        <v>0.1607099620055015</v>
       </c>
       <c r="E10">
-        <v>202645.1458333333</v>
+        <v>335107.1666666667</v>
       </c>
       <c r="F10">
-        <v>0.2219296466788718</v>
+        <v>0.3895596468081459</v>
       </c>
       <c r="G10">
-        <v>142288.21875</v>
+        <v>278532.09375</v>
       </c>
       <c r="H10">
-        <v>0.1754875343742505</v>
+        <v>0.3646561972088202</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -722,25 +722,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>152767657101.0889</v>
+        <v>158558017821.3097</v>
       </c>
       <c r="C11">
-        <v>390855.0333577513</v>
+        <v>398193.4427151076</v>
       </c>
       <c r="D11">
-        <v>0.1607099620055015</v>
+        <v>0.169647489510369</v>
       </c>
       <c r="E11">
-        <v>335107.1666666667</v>
+        <v>344631.3928874074</v>
       </c>
       <c r="F11">
-        <v>0.3895596468081459</v>
+        <v>0.4014875270101467</v>
       </c>
       <c r="G11">
-        <v>278532.09375</v>
+        <v>295322.384801201</v>
       </c>
       <c r="H11">
-        <v>0.3646561972088202</v>
+        <v>0.3822926943566968</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -748,25 +748,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>158558017821.3097</v>
+        <v>170134484265.5008</v>
       </c>
       <c r="C12">
-        <v>398193.4427151076</v>
+        <v>412473.6164477685</v>
       </c>
       <c r="D12">
-        <v>0.169647489510369</v>
+        <v>0.1741878597570409</v>
       </c>
       <c r="E12">
-        <v>344631.3928874074</v>
+        <v>351140.1812028757</v>
       </c>
       <c r="F12">
-        <v>0.4014875270101467</v>
+        <v>0.406052751715139</v>
       </c>
       <c r="G12">
-        <v>295322.384801201</v>
+        <v>295022.115325074</v>
       </c>
       <c r="H12">
-        <v>0.3822926943566968</v>
+        <v>0.394935411050853</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -774,25 +774,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>170134484265.5008</v>
+        <v>163232578769.4131</v>
       </c>
       <c r="C13">
-        <v>412473.6164477685</v>
+        <v>404020.5177579637</v>
       </c>
       <c r="D13">
-        <v>0.1741878597570409</v>
+        <v>0.1777179473584294</v>
       </c>
       <c r="E13">
-        <v>351140.1812028757</v>
+        <v>351377.4869545912</v>
       </c>
       <c r="F13">
-        <v>0.406052751715139</v>
+        <v>0.4102234066648532</v>
       </c>
       <c r="G13">
-        <v>295022.115325074</v>
+        <v>301458.3214529657</v>
       </c>
       <c r="H13">
-        <v>0.394935411050853</v>
+        <v>0.3953490915142098</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -800,25 +800,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>163232578769.4131</v>
+        <v>707124302159.6454</v>
       </c>
       <c r="C14">
-        <v>404020.5177579637</v>
+        <v>840906.8332221147</v>
       </c>
       <c r="D14">
-        <v>0.1777179473584294</v>
+        <v>1.11306043165465</v>
       </c>
       <c r="E14">
-        <v>351377.4869545912</v>
+        <v>768546.173828125</v>
       </c>
       <c r="F14">
-        <v>0.4102234066648532</v>
+        <v>0.9619818239045124</v>
       </c>
       <c r="G14">
-        <v>301458.3214529657</v>
+        <v>739335.58984375</v>
       </c>
       <c r="H14">
-        <v>0.3953490915142098</v>
+        <v>0.8856371313336685</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -826,25 +826,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>707124302159.6454</v>
+        <v>2359750108419.34</v>
       </c>
       <c r="C15">
-        <v>840906.8332221147</v>
+        <v>1536147.814638728</v>
       </c>
       <c r="D15">
-        <v>1.11306043165465</v>
+        <v>3.935077822593501</v>
       </c>
       <c r="E15">
-        <v>768546.173828125</v>
+        <v>1248594.229166667</v>
       </c>
       <c r="F15">
-        <v>0.9619818239045124</v>
+        <v>1.593140233530835</v>
       </c>
       <c r="G15">
-        <v>739335.58984375</v>
+        <v>994778.1875</v>
       </c>
       <c r="H15">
-        <v>0.8856371313336685</v>
+        <v>1.289665843736921</v>
       </c>
     </row>
   </sheetData>
@@ -945,25 +945,25 @@
         <v>673750.125</v>
       </c>
       <c r="K2">
-        <v>726108.3125</v>
+        <v>652748.5625</v>
       </c>
       <c r="L2">
-        <v>652748.5625</v>
+        <v>493747.96875</v>
       </c>
       <c r="M2">
-        <v>493747.96875</v>
+        <v>496624.248579365</v>
       </c>
       <c r="N2">
-        <v>496624.248579365</v>
+        <v>491361.914264543</v>
       </c>
       <c r="O2">
-        <v>491361.914264543</v>
+        <v>493678.244587497</v>
       </c>
       <c r="P2">
-        <v>493678.244587497</v>
+        <v>311260.625</v>
       </c>
       <c r="Q2">
-        <v>311260.625</v>
+        <v>528242</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -998,25 +998,25 @@
         <v>732205.875</v>
       </c>
       <c r="K3">
-        <v>725061.4375</v>
+        <v>761527.875</v>
       </c>
       <c r="L3">
-        <v>761527.875</v>
+        <v>553531.125</v>
       </c>
       <c r="M3">
-        <v>553531.125</v>
+        <v>551996.4726666666</v>
       </c>
       <c r="N3">
-        <v>551996.4726666666</v>
+        <v>482262.5454933653</v>
       </c>
       <c r="O3">
-        <v>482262.5454933653</v>
+        <v>553959.7513882548</v>
       </c>
       <c r="P3">
-        <v>553959.7513882548</v>
+        <v>175282.96875</v>
       </c>
       <c r="Q3">
-        <v>175282.96875</v>
+        <v>678633.0625</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1051,25 +1051,25 @@
         <v>634820.875</v>
       </c>
       <c r="K4">
-        <v>722827.5625</v>
+        <v>657557</v>
       </c>
       <c r="L4">
-        <v>657557</v>
+        <v>452017.28125</v>
       </c>
       <c r="M4">
-        <v>452017.28125</v>
+        <v>455312.8075753968</v>
       </c>
       <c r="N4">
-        <v>455312.8075753968</v>
+        <v>449044.7999104408</v>
       </c>
       <c r="O4">
-        <v>449044.7999104408</v>
+        <v>457114.5064628696</v>
       </c>
       <c r="P4">
-        <v>457114.5064628696</v>
+        <v>-284044.75</v>
       </c>
       <c r="Q4">
-        <v>-284044.75</v>
+        <v>999466.6875</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1104,25 +1104,25 @@
         <v>630498.4375</v>
       </c>
       <c r="K5">
-        <v>665359.125</v>
+        <v>624115.625</v>
       </c>
       <c r="L5">
-        <v>624115.625</v>
+        <v>437023.09375</v>
       </c>
       <c r="M5">
-        <v>437023.09375</v>
+        <v>441053.5580411255</v>
       </c>
       <c r="N5">
-        <v>441053.5580411255</v>
+        <v>462160.71702849</v>
       </c>
       <c r="O5">
-        <v>462160.71702849</v>
+        <v>437092.3253346045</v>
       </c>
       <c r="P5">
-        <v>437092.3253346045</v>
+        <v>-442144.09375</v>
       </c>
       <c r="Q5">
-        <v>-442144.09375</v>
+        <v>1310639.75</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1157,25 +1157,25 @@
         <v>682629.625</v>
       </c>
       <c r="K6">
-        <v>527162.8125</v>
+        <v>672910.5625</v>
       </c>
       <c r="L6">
-        <v>672910.5625</v>
+        <v>429133.1875</v>
       </c>
       <c r="M6">
-        <v>429133.1875</v>
+        <v>434991.4441573384</v>
       </c>
       <c r="N6">
-        <v>434991.4441573384</v>
+        <v>437900.9862969335</v>
       </c>
       <c r="O6">
-        <v>437900.9862969335</v>
+        <v>429401.1785470343</v>
       </c>
       <c r="P6">
-        <v>429401.1785470343</v>
+        <v>-470379.75</v>
       </c>
       <c r="Q6">
-        <v>-470379.75</v>
+        <v>1607693.125</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1210,25 +1210,25 @@
         <v>651786.4375</v>
       </c>
       <c r="K7">
-        <v>524527.9375</v>
+        <v>630329</v>
       </c>
       <c r="L7">
-        <v>630329</v>
+        <v>551745.1875</v>
       </c>
       <c r="M7">
-        <v>551745.1875</v>
+        <v>540086.8686666667</v>
       </c>
       <c r="N7">
-        <v>540086.8686666667</v>
+        <v>494718.0290992705</v>
       </c>
       <c r="O7">
-        <v>494718.0290992705</v>
+        <v>551387.3328922144</v>
       </c>
       <c r="P7">
-        <v>551387.3328922144</v>
+        <v>231067.328125</v>
       </c>
       <c r="Q7">
-        <v>231067.328125</v>
+        <v>1796721.375</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1263,25 +1263,25 @@
         <v>727972.625</v>
       </c>
       <c r="K8">
-        <v>780691.875</v>
+        <v>677565.3125</v>
       </c>
       <c r="L8">
-        <v>677565.3125</v>
+        <v>565132.125</v>
       </c>
       <c r="M8">
-        <v>565132.125</v>
+        <v>544470.7862402597</v>
       </c>
       <c r="N8">
-        <v>544470.7862402597</v>
+        <v>545172.7830529185</v>
       </c>
       <c r="O8">
-        <v>545172.7830529185</v>
+        <v>521737.7054591745</v>
       </c>
       <c r="P8">
-        <v>521737.7054591745</v>
+        <v>107348.53125</v>
       </c>
       <c r="Q8">
-        <v>107348.53125</v>
+        <v>1779520</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1316,25 +1316,25 @@
         <v>661025.25</v>
       </c>
       <c r="K9">
-        <v>922518.1875</v>
+        <v>652389.25</v>
       </c>
       <c r="L9">
-        <v>652389.25</v>
+        <v>492334.6875</v>
       </c>
       <c r="M9">
-        <v>492334.6875</v>
+        <v>494450.4419336218</v>
       </c>
       <c r="N9">
-        <v>494450.4419336218</v>
+        <v>471798.3713042433</v>
       </c>
       <c r="O9">
-        <v>471798.3713042433</v>
+        <v>491975.3260207969</v>
       </c>
       <c r="P9">
-        <v>491975.3260207969</v>
+        <v>885428</v>
       </c>
       <c r="Q9">
-        <v>885428</v>
+        <v>1837770.5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1369,25 +1369,25 @@
         <v>704419.5625</v>
       </c>
       <c r="K10">
-        <v>772147.5625</v>
+        <v>627258.1875</v>
       </c>
       <c r="L10">
-        <v>627258.1875</v>
+        <v>427604.25</v>
       </c>
       <c r="M10">
-        <v>427604.25</v>
+        <v>430962.249892857</v>
       </c>
       <c r="N10">
-        <v>430962.249892857</v>
+        <v>449035.8320309925</v>
       </c>
       <c r="O10">
-        <v>449035.8320309925</v>
+        <v>428480.4757229878</v>
       </c>
       <c r="P10">
-        <v>428480.4757229878</v>
+        <v>306697.15625</v>
       </c>
       <c r="Q10">
-        <v>306697.15625</v>
+        <v>2088839.375</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1422,25 +1422,25 @@
         <v>684245.4375</v>
       </c>
       <c r="K11">
-        <v>723152.1875</v>
+        <v>549850.5</v>
       </c>
       <c r="L11">
-        <v>549850.5</v>
+        <v>429133.1875</v>
       </c>
       <c r="M11">
-        <v>429133.1875</v>
+        <v>434991.4441573384</v>
       </c>
       <c r="N11">
-        <v>434991.4441573384</v>
+        <v>437900.9862969335</v>
       </c>
       <c r="O11">
-        <v>437900.9862969335</v>
+        <v>429401.1785470343</v>
       </c>
       <c r="P11">
-        <v>429401.1785470343</v>
+        <v>-132060.0625</v>
       </c>
       <c r="Q11">
-        <v>-132060.0625</v>
+        <v>2476762.75</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1475,25 +1475,25 @@
         <v>662911.8125</v>
       </c>
       <c r="K12">
-        <v>1036209.9375</v>
+        <v>415522.8125</v>
       </c>
       <c r="L12">
-        <v>415522.8125</v>
+        <v>523084.65625</v>
       </c>
       <c r="M12">
-        <v>523084.65625</v>
+        <v>411897.713547619</v>
       </c>
       <c r="N12">
-        <v>411897.713547619</v>
+        <v>419302.0287563673</v>
       </c>
       <c r="O12">
-        <v>419302.0287563673</v>
+        <v>364138.6558594496</v>
       </c>
       <c r="P12">
-        <v>364138.6558594496</v>
+        <v>27046.2890625</v>
       </c>
       <c r="Q12">
-        <v>27046.2890625</v>
+        <v>3353448.75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1528,25 +1528,25 @@
         <v>556617.625</v>
       </c>
       <c r="K13">
-        <v>1287333.875</v>
+        <v>449860.5625</v>
       </c>
       <c r="L13">
-        <v>449860.5625</v>
+        <v>427604.25</v>
       </c>
       <c r="M13">
-        <v>427604.25</v>
+        <v>430962.249892857</v>
       </c>
       <c r="N13">
-        <v>430962.249892857</v>
+        <v>449035.8320309925</v>
       </c>
       <c r="O13">
-        <v>449035.8320309925</v>
+        <v>428480.4757229878</v>
       </c>
       <c r="P13">
-        <v>428480.4757229878</v>
+        <v>88620.671875</v>
       </c>
       <c r="Q13">
-        <v>88620.671875</v>
+        <v>4206064.5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1581,25 +1581,25 @@
         <v>630792.625</v>
       </c>
       <c r="K14">
-        <v>1204012.125</v>
+        <v>313587.40625</v>
       </c>
       <c r="L14">
-        <v>313587.40625</v>
+        <v>387820.96875</v>
       </c>
       <c r="M14">
-        <v>387820.96875</v>
+        <v>388428.5457609612</v>
       </c>
       <c r="N14">
-        <v>388428.5457609612</v>
+        <v>406302.856219608</v>
       </c>
       <c r="O14">
-        <v>406302.856219608</v>
+        <v>387503.0820096064</v>
       </c>
       <c r="P14">
-        <v>387503.0820096064</v>
+        <v>375178.4375</v>
       </c>
       <c r="Q14">
-        <v>375178.4375</v>
+        <v>4928698.5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1634,25 +1634,25 @@
         <v>712879.5</v>
       </c>
       <c r="K15">
-        <v>1096800.875</v>
+        <v>460447.5</v>
       </c>
       <c r="L15">
-        <v>460447.5</v>
+        <v>576451.9375</v>
       </c>
       <c r="M15">
-        <v>576451.9375</v>
+        <v>576134.3582142857</v>
       </c>
       <c r="N15">
-        <v>576134.3582142857</v>
+        <v>545172.7830529185</v>
       </c>
       <c r="O15">
-        <v>545172.7830529185</v>
+        <v>542712.8618883115</v>
       </c>
       <c r="P15">
-        <v>542712.8618883115</v>
+        <v>-475626.53125</v>
       </c>
       <c r="Q15">
-        <v>-475626.53125</v>
+        <v>5951678</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1687,25 +1687,25 @@
         <v>610147.8125</v>
       </c>
       <c r="K16">
-        <v>758662.875</v>
+        <v>345065.125</v>
       </c>
       <c r="L16">
-        <v>345065.125</v>
+        <v>544047.6875</v>
       </c>
       <c r="M16">
-        <v>544047.6875</v>
+        <v>535512.1016825394</v>
       </c>
       <c r="N16">
-        <v>535512.1016825394</v>
+        <v>471954.4039974385</v>
       </c>
       <c r="O16">
-        <v>471954.4039974385</v>
+        <v>542759.1135964745</v>
       </c>
       <c r="P16">
-        <v>542759.1135964745</v>
+        <v>-657460.5</v>
       </c>
       <c r="Q16">
-        <v>-657460.5</v>
+        <v>9877953</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1740,25 +1740,25 @@
         <v>616291.9375</v>
       </c>
       <c r="K17">
-        <v>436285.75</v>
+        <v>410338.96875</v>
       </c>
       <c r="L17">
-        <v>410338.96875</v>
+        <v>563636.5</v>
       </c>
       <c r="M17">
-        <v>563636.5</v>
+        <v>529777.4310091576</v>
       </c>
       <c r="N17">
-        <v>529777.4310091576</v>
+        <v>478196.4444485664</v>
       </c>
       <c r="O17">
-        <v>478196.4444485664</v>
+        <v>560431.7343839569</v>
       </c>
       <c r="P17">
-        <v>560431.7343839569</v>
+        <v>236113.703125</v>
       </c>
       <c r="Q17">
-        <v>236113.703125</v>
+        <v>13682668</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1793,25 +1793,25 @@
         <v>653687.875</v>
       </c>
       <c r="K18">
-        <v>602528.125</v>
+        <v>390718.71875</v>
       </c>
       <c r="L18">
-        <v>390718.71875</v>
+        <v>472471.90625</v>
       </c>
       <c r="M18">
-        <v>472471.90625</v>
+        <v>470436.3989838216</v>
       </c>
       <c r="N18">
-        <v>470436.3989838216</v>
+        <v>449035.8320309925</v>
       </c>
       <c r="O18">
-        <v>449035.8320309925</v>
+        <v>472195.779416068</v>
       </c>
       <c r="P18">
-        <v>472195.779416068</v>
+        <v>768247.0625</v>
       </c>
       <c r="Q18">
-        <v>768247.0625</v>
+        <v>13718912</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1846,25 +1846,25 @@
         <v>553180.3125</v>
       </c>
       <c r="K19">
-        <v>768770.625</v>
+        <v>344557.09375</v>
       </c>
       <c r="L19">
-        <v>344557.09375</v>
+        <v>523996.625</v>
       </c>
       <c r="M19">
-        <v>523996.625</v>
+        <v>514930.9983333333</v>
       </c>
       <c r="N19">
-        <v>514930.9983333333</v>
+        <v>482212.266315921</v>
       </c>
       <c r="O19">
-        <v>482212.266315921</v>
+        <v>523691.3962580613</v>
       </c>
       <c r="P19">
-        <v>523691.3962580613</v>
+        <v>-184260.609375</v>
       </c>
       <c r="Q19">
-        <v>-184260.609375</v>
+        <v>13755154</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1899,25 +1899,25 @@
         <v>601438.0625</v>
       </c>
       <c r="K20">
-        <v>550242.1875</v>
+        <v>470844.40625</v>
       </c>
       <c r="L20">
-        <v>470844.40625</v>
+        <v>600816.75</v>
       </c>
       <c r="M20">
-        <v>600816.75</v>
+        <v>583478.4977619047</v>
       </c>
       <c r="N20">
-        <v>583478.4977619047</v>
+        <v>482262.5454933653</v>
       </c>
       <c r="O20">
-        <v>482262.5454933653</v>
+        <v>599070.5645222331</v>
       </c>
       <c r="P20">
-        <v>599070.5645222331</v>
+        <v>298242.25</v>
       </c>
       <c r="Q20">
-        <v>298242.25</v>
+        <v>13723219</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1952,25 +1952,25 @@
         <v>475062.875</v>
       </c>
       <c r="K21">
-        <v>319302</v>
+        <v>357617.15625</v>
       </c>
       <c r="L21">
-        <v>357617.15625</v>
+        <v>493747.96875</v>
       </c>
       <c r="M21">
-        <v>493747.96875</v>
+        <v>496624.248579365</v>
       </c>
       <c r="N21">
-        <v>496624.248579365</v>
+        <v>491361.914264543</v>
       </c>
       <c r="O21">
-        <v>491361.914264543</v>
+        <v>493678.244587497</v>
       </c>
       <c r="P21">
-        <v>493678.244587497</v>
+        <v>486632.4375</v>
       </c>
       <c r="Q21">
-        <v>486632.4375</v>
+        <v>13689090</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2005,25 +2005,25 @@
         <v>568141.0625</v>
       </c>
       <c r="K22">
-        <v>508641.375</v>
+        <v>454997.6875</v>
       </c>
       <c r="L22">
-        <v>454997.6875</v>
+        <v>463018.625</v>
       </c>
       <c r="M22">
-        <v>463018.625</v>
+        <v>471899.9339711398</v>
       </c>
       <c r="N22">
-        <v>471899.9339711398</v>
+        <v>474667.9405442185</v>
       </c>
       <c r="O22">
-        <v>474667.9405442185</v>
+        <v>462884.0115643523</v>
       </c>
       <c r="P22">
-        <v>462884.0115643523</v>
+        <v>57563.81640625</v>
       </c>
       <c r="Q22">
-        <v>57563.81640625</v>
+        <v>15948614</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2058,25 +2058,25 @@
         <v>531203.6875</v>
       </c>
       <c r="K23">
-        <v>741457.8125</v>
+        <v>369805.1875</v>
       </c>
       <c r="L23">
-        <v>369805.1875</v>
+        <v>585685.875</v>
       </c>
       <c r="M23">
-        <v>585685.875</v>
+        <v>587013.4074047619</v>
       </c>
       <c r="N23">
-        <v>587013.4074047619</v>
+        <v>545172.7830529185</v>
       </c>
       <c r="O23">
-        <v>545172.7830529185</v>
+        <v>585563.1076944018</v>
       </c>
       <c r="P23">
-        <v>585563.1076944018</v>
+        <v>-320291.375</v>
       </c>
       <c r="Q23">
-        <v>-320291.375</v>
+        <v>18445414</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2111,25 +2111,25 @@
         <v>330435.5625</v>
       </c>
       <c r="K24">
-        <v>556986.125</v>
+        <v>309361.3125</v>
       </c>
       <c r="L24">
-        <v>309361.3125</v>
+        <v>546630.4375</v>
       </c>
       <c r="M24">
-        <v>546630.4375</v>
+        <v>545215.8581904761</v>
       </c>
       <c r="N24">
-        <v>545215.8581904761</v>
+        <v>477773.3607477912</v>
       </c>
       <c r="O24">
-        <v>477773.3607477912</v>
+        <v>546488.1976773234</v>
       </c>
       <c r="P24">
-        <v>546488.1976773234</v>
+        <v>159751.59375</v>
       </c>
       <c r="Q24">
-        <v>159751.59375</v>
+        <v>18430880</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2164,25 +2164,25 @@
         <v>185379.90625</v>
       </c>
       <c r="K25">
-        <v>295238.8125</v>
+        <v>305905.25</v>
       </c>
       <c r="L25">
-        <v>305905.25</v>
+        <v>478272.25</v>
       </c>
       <c r="M25">
-        <v>478272.25</v>
+        <v>466470.9844999999</v>
       </c>
       <c r="N25">
-        <v>466470.9844999999</v>
+        <v>499591.0288319897</v>
       </c>
       <c r="O25">
-        <v>499591.0288319897</v>
+        <v>479260.3102942658</v>
       </c>
       <c r="P25">
-        <v>479260.3102942658</v>
+        <v>-334172.78125</v>
       </c>
       <c r="Q25">
-        <v>-334172.78125</v>
+        <v>17951284</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2217,25 +2217,25 @@
         <v>289898.75</v>
       </c>
       <c r="K26">
-        <v>2027391.375</v>
+        <v>364057.34375</v>
       </c>
       <c r="L26">
-        <v>364057.34375</v>
+        <v>492334.6875</v>
       </c>
       <c r="M26">
-        <v>492334.6875</v>
+        <v>494450.4419336218</v>
       </c>
       <c r="N26">
-        <v>494450.4419336218</v>
+        <v>471798.3713042433</v>
       </c>
       <c r="O26">
-        <v>471798.3713042433</v>
+        <v>491975.3260207969</v>
       </c>
       <c r="P26">
-        <v>491975.3260207969</v>
+        <v>-144738.234375</v>
       </c>
       <c r="Q26">
-        <v>-144738.234375</v>
+        <v>17766738</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2270,25 +2270,25 @@
         <v>408102.15625</v>
       </c>
       <c r="K27">
-        <v>4317837</v>
+        <v>421332.03125</v>
       </c>
       <c r="L27">
-        <v>421332.03125</v>
+        <v>494593.625</v>
       </c>
       <c r="M27">
-        <v>494593.625</v>
+        <v>488649.2586666667</v>
       </c>
       <c r="N27">
-        <v>488649.2586666667</v>
+        <v>499591.0288319897</v>
       </c>
       <c r="O27">
-        <v>499591.0288319897</v>
+        <v>490283.2874814206</v>
       </c>
       <c r="P27">
-        <v>490283.2874814206</v>
+        <v>-119648.3046875</v>
       </c>
       <c r="Q27">
-        <v>-119648.3046875</v>
+        <v>17664806</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2323,25 +2323,25 @@
         <v>361820.96875</v>
       </c>
       <c r="K28">
-        <v>5192140.5</v>
+        <v>437618.21875</v>
       </c>
       <c r="L28">
-        <v>437618.21875</v>
+        <v>452017.28125</v>
       </c>
       <c r="M28">
-        <v>452017.28125</v>
+        <v>455312.8075753968</v>
       </c>
       <c r="N28">
-        <v>455312.8075753968</v>
+        <v>449044.7999104408</v>
       </c>
       <c r="O28">
-        <v>449044.7999104408</v>
+        <v>457114.5064628696</v>
       </c>
       <c r="P28">
-        <v>457114.5064628696</v>
+        <v>-232955.140625</v>
       </c>
       <c r="Q28">
-        <v>-232955.140625</v>
+        <v>18058256</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2376,25 +2376,25 @@
         <v>452647.4375</v>
       </c>
       <c r="K29">
-        <v>5512305.5</v>
+        <v>468701.1875</v>
       </c>
       <c r="L29">
-        <v>468701.1875</v>
+        <v>563636.5</v>
       </c>
       <c r="M29">
-        <v>563636.5</v>
+        <v>529777.4310091576</v>
       </c>
       <c r="N29">
-        <v>529777.4310091576</v>
+        <v>478196.4444485664</v>
       </c>
       <c r="O29">
-        <v>478196.4444485664</v>
+        <v>560431.7343839569</v>
       </c>
       <c r="P29">
-        <v>560431.7343839569</v>
+        <v>281707.59375</v>
       </c>
       <c r="Q29">
-        <v>281707.59375</v>
+        <v>18645548</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2429,25 +2429,25 @@
         <v>418922.5</v>
       </c>
       <c r="K30">
-        <v>5490594</v>
+        <v>435778</v>
       </c>
       <c r="L30">
-        <v>435778</v>
+        <v>427604.25</v>
       </c>
       <c r="M30">
-        <v>427604.25</v>
+        <v>430962.249892857</v>
       </c>
       <c r="N30">
-        <v>430962.249892857</v>
+        <v>449035.8320309925</v>
       </c>
       <c r="O30">
-        <v>449035.8320309925</v>
+        <v>428480.4757229878</v>
       </c>
       <c r="P30">
-        <v>428480.4757229878</v>
+        <v>745475.125</v>
       </c>
       <c r="Q30">
-        <v>745475.125</v>
+        <v>21742316</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2482,25 +2482,25 @@
         <v>298280.46875</v>
       </c>
       <c r="K31">
-        <v>5289805</v>
+        <v>440738.125</v>
       </c>
       <c r="L31">
-        <v>440738.125</v>
+        <v>492334.6875</v>
       </c>
       <c r="M31">
-        <v>492334.6875</v>
+        <v>494450.4419336218</v>
       </c>
       <c r="N31">
-        <v>494450.4419336218</v>
+        <v>471798.3713042433</v>
       </c>
       <c r="O31">
-        <v>471798.3713042433</v>
+        <v>491975.3260207969</v>
       </c>
       <c r="P31">
-        <v>491975.3260207969</v>
+        <v>1053443</v>
       </c>
       <c r="Q31">
-        <v>1053443</v>
+        <v>26153576</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2535,25 +2535,25 @@
         <v>434653.65625</v>
       </c>
       <c r="K32">
-        <v>5282348.5</v>
+        <v>421440.1875</v>
       </c>
       <c r="L32">
-        <v>421440.1875</v>
+        <v>585685.875</v>
       </c>
       <c r="M32">
-        <v>585685.875</v>
+        <v>587013.4074047619</v>
       </c>
       <c r="N32">
-        <v>587013.4074047619</v>
+        <v>545172.7830529185</v>
       </c>
       <c r="O32">
-        <v>545172.7830529185</v>
+        <v>585563.1076944018</v>
       </c>
       <c r="P32">
-        <v>585563.1076944018</v>
+        <v>5062857.5</v>
       </c>
       <c r="Q32">
-        <v>5062857.5</v>
+        <v>27469646</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2588,25 +2588,25 @@
         <v>489896.96875</v>
       </c>
       <c r="K33">
-        <v>5407169.5</v>
+        <v>550278.625</v>
       </c>
       <c r="L33">
-        <v>550278.625</v>
+        <v>493747.96875</v>
       </c>
       <c r="M33">
-        <v>493747.96875</v>
+        <v>496624.248579365</v>
       </c>
       <c r="N33">
-        <v>496624.248579365</v>
+        <v>491361.914264543</v>
       </c>
       <c r="O33">
-        <v>491361.914264543</v>
+        <v>493678.244587497</v>
       </c>
       <c r="P33">
-        <v>493678.244587497</v>
+        <v>4602153</v>
       </c>
       <c r="Q33">
-        <v>4602153</v>
+        <v>26667970</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2641,25 +2641,25 @@
         <v>383117.75</v>
       </c>
       <c r="K34">
-        <v>5465679.5</v>
+        <v>562336.1875</v>
       </c>
       <c r="L34">
-        <v>562336.1875</v>
+        <v>429133.1875</v>
       </c>
       <c r="M34">
-        <v>429133.1875</v>
+        <v>434991.4441573384</v>
       </c>
       <c r="N34">
-        <v>434991.4441573384</v>
+        <v>437900.9862969335</v>
       </c>
       <c r="O34">
-        <v>437900.9862969335</v>
+        <v>429401.1785470343</v>
       </c>
       <c r="P34">
-        <v>429401.1785470343</v>
+        <v>8099332.5</v>
       </c>
       <c r="Q34">
-        <v>8099332.5</v>
+        <v>26292186</v>
       </c>
     </row>
   </sheetData>
@@ -2804,28 +2804,28 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>13336045032.63175</v>
+        <v>13336174712.75619</v>
       </c>
       <c r="C6">
-        <v>115481.7952433705</v>
+        <v>115482.3567163235</v>
       </c>
       <c r="D6">
-        <v>0.03602951575854261</v>
+        <v>0.03603048931047614</v>
       </c>
       <c r="E6">
-        <v>69407.53385416667</v>
+        <v>69409.234375</v>
       </c>
       <c r="F6">
-        <v>0.1361724643874111</v>
+        <v>0.1361764269346283</v>
       </c>
       <c r="G6">
-        <v>45639.90625</v>
+        <v>45639.765625</v>
       </c>
       <c r="H6">
-        <v>0.1135207397657125</v>
+        <v>0.1135204342846203</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2908,7 +2908,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>12480172453.72176</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>40244167616.35723</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>42564892373.85519</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>44819037838.24972</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>44306452669.4342</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>830024843920.8217</v>
@@ -3098,7 +3098,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -3110,22 +3110,22 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3151,7 +3151,7 @@
         <v>400851.5625</v>
       </c>
       <c r="H2">
-        <v>355609.625</v>
+        <v>355610.90625</v>
       </c>
       <c r="I2">
         <v>355609.03125</v>
@@ -3204,7 +3204,7 @@
         <v>370924.15625</v>
       </c>
       <c r="H3">
-        <v>355607.09375</v>
+        <v>355609.34375</v>
       </c>
       <c r="I3">
         <v>355605.75</v>
@@ -3257,7 +3257,7 @@
         <v>380722.65625</v>
       </c>
       <c r="H4">
-        <v>355613.15625</v>
+        <v>355611.75</v>
       </c>
       <c r="I4">
         <v>355607.90625</v>
@@ -3310,7 +3310,7 @@
         <v>378769.15625</v>
       </c>
       <c r="H5">
-        <v>355612.1875</v>
+        <v>355612.78125</v>
       </c>
       <c r="I5">
         <v>355606.8125</v>
@@ -3363,7 +3363,7 @@
         <v>315242.9375</v>
       </c>
       <c r="H6">
-        <v>355618.6875</v>
+        <v>355610.59375</v>
       </c>
       <c r="I6">
         <v>355612.15625</v>
@@ -3416,7 +3416,7 @@
         <v>381844.15625</v>
       </c>
       <c r="H7">
-        <v>355617.84375</v>
+        <v>355610.96875</v>
       </c>
       <c r="I7">
         <v>355613.5</v>
@@ -3469,7 +3469,7 @@
         <v>366697.40625</v>
       </c>
       <c r="H8">
-        <v>355615.84375</v>
+        <v>355611.40625</v>
       </c>
       <c r="I8">
         <v>355613.3125</v>
@@ -3522,7 +3522,7 @@
         <v>443783.65625</v>
       </c>
       <c r="H9">
-        <v>355615.5625</v>
+        <v>355614.5625</v>
       </c>
       <c r="I9">
         <v>355607.90625</v>
@@ -3575,7 +3575,7 @@
         <v>512295.6875</v>
       </c>
       <c r="H10">
-        <v>355616.59375</v>
+        <v>355613.25</v>
       </c>
       <c r="I10">
         <v>355612.21875</v>
@@ -3628,7 +3628,7 @@
         <v>307027.125</v>
       </c>
       <c r="H11">
-        <v>355615.15625</v>
+        <v>355614.46875</v>
       </c>
       <c r="I11">
         <v>355608.8125</v>
@@ -3681,7 +3681,7 @@
         <v>290360.46875</v>
       </c>
       <c r="H12">
-        <v>355620.53125</v>
+        <v>355610.75</v>
       </c>
       <c r="I12">
         <v>355613.5625</v>
@@ -3734,7 +3734,7 @@
         <v>377263.09375</v>
       </c>
       <c r="H13">
-        <v>355620</v>
+        <v>355613.53125</v>
       </c>
       <c r="I13">
         <v>355613.65625</v>
@@ -3787,7 +3787,7 @@
         <v>372181.40625</v>
       </c>
       <c r="H14">
-        <v>355616.71875</v>
+        <v>355611.8125</v>
       </c>
       <c r="I14">
         <v>355611.40625</v>
@@ -3840,7 +3840,7 @@
         <v>373925.28125</v>
       </c>
       <c r="H15">
-        <v>355618.78125</v>
+        <v>355612.21875</v>
       </c>
       <c r="I15">
         <v>355613.46875</v>
@@ -3893,7 +3893,7 @@
         <v>385948.4375</v>
       </c>
       <c r="H16">
-        <v>355613.1875</v>
+        <v>355610.84375</v>
       </c>
       <c r="I16">
         <v>355611.53125</v>
@@ -3946,7 +3946,7 @@
         <v>342703.21875</v>
       </c>
       <c r="H17">
-        <v>355617</v>
+        <v>355611.5625</v>
       </c>
       <c r="I17">
         <v>355611.34375</v>
@@ -3999,7 +3999,7 @@
         <v>238018.4375</v>
       </c>
       <c r="H18">
-        <v>355620.15625</v>
+        <v>355612.6875</v>
       </c>
       <c r="I18">
         <v>355611.5</v>
@@ -4052,7 +4052,7 @@
         <v>286899.21875</v>
       </c>
       <c r="H19">
-        <v>355618.96875</v>
+        <v>355612.15625</v>
       </c>
       <c r="I19">
         <v>355613.125</v>
@@ -4105,7 +4105,7 @@
         <v>393534</v>
       </c>
       <c r="H20">
-        <v>355618.4375</v>
+        <v>355610.6875</v>
       </c>
       <c r="I20">
         <v>355611.125</v>
@@ -4158,7 +4158,7 @@
         <v>308476.40625</v>
       </c>
       <c r="H21">
-        <v>355617.71875</v>
+        <v>355609.09375</v>
       </c>
       <c r="I21">
         <v>355610.125</v>
@@ -4211,7 +4211,7 @@
         <v>494712.78125</v>
       </c>
       <c r="H22">
-        <v>355626.9375</v>
+        <v>355612.15625</v>
       </c>
       <c r="I22">
         <v>355611.5625</v>
@@ -4264,7 +4264,7 @@
         <v>295879.84375</v>
       </c>
       <c r="H23">
-        <v>355636.90625</v>
+        <v>355609.15625</v>
       </c>
       <c r="I23">
         <v>355610.625</v>
@@ -4317,7 +4317,7 @@
         <v>411633</v>
       </c>
       <c r="H24">
-        <v>355637.90625</v>
+        <v>355608.90625</v>
       </c>
       <c r="I24">
         <v>355610.40625</v>
@@ -4370,7 +4370,7 @@
         <v>399336.71875</v>
       </c>
       <c r="H25">
-        <v>355640.96875</v>
+        <v>355607.9375</v>
       </c>
       <c r="I25">
         <v>355612.625</v>
@@ -4423,7 +4423,7 @@
         <v>370275.6875</v>
       </c>
       <c r="H26">
-        <v>355665.875</v>
+        <v>355610.375</v>
       </c>
       <c r="I26">
         <v>355612.625</v>
@@ -4476,7 +4476,7 @@
         <v>517799.375</v>
       </c>
       <c r="H27">
-        <v>355662.0625</v>
+        <v>355617.3125</v>
       </c>
       <c r="I27">
         <v>355612.78125</v>
@@ -4529,7 +4529,7 @@
         <v>323554.03125</v>
       </c>
       <c r="H28">
-        <v>355665.15625</v>
+        <v>355618.28125</v>
       </c>
       <c r="I28">
         <v>355613.4375</v>
@@ -4582,7 +4582,7 @@
         <v>441366.6875</v>
       </c>
       <c r="H29">
-        <v>355669.34375</v>
+        <v>355618.75</v>
       </c>
       <c r="I29">
         <v>355612.4375</v>
@@ -4635,7 +4635,7 @@
         <v>482870.8125</v>
       </c>
       <c r="H30">
-        <v>355682.5</v>
+        <v>355618.4375</v>
       </c>
       <c r="I30">
         <v>355612.03125</v>
@@ -4688,7 +4688,7 @@
         <v>301612.3125</v>
       </c>
       <c r="H31">
-        <v>355685.5</v>
+        <v>355618.84375</v>
       </c>
       <c r="I31">
         <v>355613.84375</v>
@@ -4741,7 +4741,7 @@
         <v>384794.1875</v>
       </c>
       <c r="H32">
-        <v>355680.875</v>
+        <v>355620.875</v>
       </c>
       <c r="I32">
         <v>355611.8125</v>
@@ -4794,7 +4794,7 @@
         <v>347067.9375</v>
       </c>
       <c r="H33">
-        <v>355678.75</v>
+        <v>355619.90625</v>
       </c>
       <c r="I33">
         <v>355612.8125</v>
@@ -4847,7 +4847,7 @@
         <v>375141.125</v>
       </c>
       <c r="H34">
-        <v>355674.46875</v>
+        <v>355617.3125</v>
       </c>
       <c r="I34">
         <v>355612.59375</v>
@@ -4967,28 +4967,28 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>21320701451.07487</v>
+        <v>21541530363.77987</v>
       </c>
       <c r="C4">
-        <v>146016.099972143</v>
+        <v>146770.3320285809</v>
       </c>
       <c r="D4">
-        <v>0.04072762938162997</v>
+        <v>0.04124632046827183</v>
       </c>
       <c r="E4">
-        <v>74958.52083333333</v>
+        <v>74235.86197916667</v>
       </c>
       <c r="F4">
-        <v>0.1435568773232077</v>
+        <v>0.1397992651343611</v>
       </c>
       <c r="G4">
-        <v>34389.078125</v>
+        <v>43257.109375</v>
       </c>
       <c r="H4">
-        <v>0.101854046492336</v>
+        <v>0.120120698735201</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5123,7 +5123,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>22307324133.80867</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>43023567956.23386</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>43728990878.16383</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>43914247639.26597</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>43479384079.41467</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>299273934370.4168</v>
@@ -5307,7 +5307,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -5325,22 +5325,22 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5360,7 +5360,7 @@
         <v>269107.65625</v>
       </c>
       <c r="F2">
-        <v>355402.21875</v>
+        <v>339195.0625</v>
       </c>
       <c r="G2">
         <v>339198.9375</v>
@@ -5413,7 +5413,7 @@
         <v>394854.15625</v>
       </c>
       <c r="F3">
-        <v>340680.15625</v>
+        <v>339195.5</v>
       </c>
       <c r="G3">
         <v>339197.53125</v>
@@ -5466,7 +5466,7 @@
         <v>308823.9375</v>
       </c>
       <c r="F4">
-        <v>320300.3125</v>
+        <v>339196.1875</v>
       </c>
       <c r="G4">
         <v>339196.5625</v>
@@ -5519,7 +5519,7 @@
         <v>320342.78125</v>
       </c>
       <c r="F5">
-        <v>331141.46875</v>
+        <v>339197.34375</v>
       </c>
       <c r="G5">
         <v>339195.21875</v>
@@ -5572,7 +5572,7 @@
         <v>375159.875</v>
       </c>
       <c r="F6">
-        <v>326353.90625</v>
+        <v>339200.09375</v>
       </c>
       <c r="G6">
         <v>339200.875</v>
@@ -5625,7 +5625,7 @@
         <v>333766.8125</v>
       </c>
       <c r="F7">
-        <v>329293.21875</v>
+        <v>339202.21875</v>
       </c>
       <c r="G7">
         <v>339198.25</v>
@@ -5678,7 +5678,7 @@
         <v>352521.75</v>
       </c>
       <c r="F8">
-        <v>363929.1875</v>
+        <v>339203.78125</v>
       </c>
       <c r="G8">
         <v>339202.5</v>
@@ -5731,7 +5731,7 @@
         <v>310333.5625</v>
       </c>
       <c r="F9">
-        <v>358751.8125</v>
+        <v>339205.125</v>
       </c>
       <c r="G9">
         <v>339198.90625</v>
@@ -5784,7 +5784,7 @@
         <v>321776.5</v>
       </c>
       <c r="F10">
-        <v>324039.84375</v>
+        <v>339205.375</v>
       </c>
       <c r="G10">
         <v>339196.84375</v>
@@ -5837,7 +5837,7 @@
         <v>342849.5625</v>
       </c>
       <c r="F11">
-        <v>362054.5625</v>
+        <v>339205.59375</v>
       </c>
       <c r="G11">
         <v>339203.15625</v>
@@ -5890,7 +5890,7 @@
         <v>393597.1875</v>
       </c>
       <c r="F12">
-        <v>332338.90625</v>
+        <v>339205.40625</v>
       </c>
       <c r="G12">
         <v>339198.21875</v>
@@ -5943,7 +5943,7 @@
         <v>283252</v>
       </c>
       <c r="F13">
-        <v>350510.46875</v>
+        <v>339206.78125</v>
       </c>
       <c r="G13">
         <v>339201.25</v>
@@ -5996,7 +5996,7 @@
         <v>302537.4375</v>
       </c>
       <c r="F14">
-        <v>334473.84375</v>
+        <v>339217.09375</v>
       </c>
       <c r="G14">
         <v>339199.90625</v>
@@ -6049,7 +6049,7 @@
         <v>365188.40625</v>
       </c>
       <c r="F15">
-        <v>346617.15625</v>
+        <v>339229.3125</v>
       </c>
       <c r="G15">
         <v>339202.71875</v>
@@ -6102,7 +6102,7 @@
         <v>313367.09375</v>
       </c>
       <c r="F16">
-        <v>322385.75</v>
+        <v>339259.28125</v>
       </c>
       <c r="G16">
         <v>339201.28125</v>
@@ -6155,7 +6155,7 @@
         <v>330662.875</v>
       </c>
       <c r="F17">
-        <v>319448.03125</v>
+        <v>339288.0625</v>
       </c>
       <c r="G17">
         <v>339202.375</v>
@@ -6208,7 +6208,7 @@
         <v>318513.5625</v>
       </c>
       <c r="F18">
-        <v>351204.03125</v>
+        <v>339299.46875</v>
       </c>
       <c r="G18">
         <v>339198.90625</v>
@@ -6261,7 +6261,7 @@
         <v>347004.125</v>
       </c>
       <c r="F19">
-        <v>338721.03125</v>
+        <v>339310.6875</v>
       </c>
       <c r="G19">
         <v>339196.59375</v>
@@ -6314,7 +6314,7 @@
         <v>352597.0625</v>
       </c>
       <c r="F20">
-        <v>341853.40625</v>
+        <v>339308.6875</v>
       </c>
       <c r="G20">
         <v>339198.9375</v>
@@ -6367,7 +6367,7 @@
         <v>258738.09375</v>
       </c>
       <c r="F21">
-        <v>321235</v>
+        <v>339305.84375</v>
       </c>
       <c r="G21">
         <v>339197.8125</v>
@@ -6420,7 +6420,7 @@
         <v>322472.3125</v>
       </c>
       <c r="F22">
-        <v>350385.40625</v>
+        <v>339308.71875</v>
       </c>
       <c r="G22">
         <v>339197</v>
@@ -6473,7 +6473,7 @@
         <v>351460.6875</v>
       </c>
       <c r="F23">
-        <v>325076.09375</v>
+        <v>339312.1875</v>
       </c>
       <c r="G23">
         <v>339198.6875</v>
@@ -6526,7 +6526,7 @@
         <v>251999.859375</v>
       </c>
       <c r="F24">
-        <v>317738.4375</v>
+        <v>339308.375</v>
       </c>
       <c r="G24">
         <v>339200.40625</v>
@@ -6579,7 +6579,7 @@
         <v>237659.046875</v>
       </c>
       <c r="F25">
-        <v>340260.875</v>
+        <v>339304.375</v>
       </c>
       <c r="G25">
         <v>339198.4375</v>
@@ -6632,7 +6632,7 @@
         <v>291326.125</v>
       </c>
       <c r="F26">
-        <v>348477.28125</v>
+        <v>339305.78125</v>
       </c>
       <c r="G26">
         <v>339202.03125</v>
@@ -6685,7 +6685,7 @@
         <v>290016.75</v>
       </c>
       <c r="F27">
-        <v>321538.03125</v>
+        <v>339308.59375</v>
       </c>
       <c r="G27">
         <v>339200.375</v>
@@ -6738,7 +6738,7 @@
         <v>236532.375</v>
       </c>
       <c r="F28">
-        <v>336019.25</v>
+        <v>339311.75</v>
       </c>
       <c r="G28">
         <v>339203.78125</v>
@@ -6791,7 +6791,7 @@
         <v>275493.90625</v>
       </c>
       <c r="F29">
-        <v>329687.28125</v>
+        <v>339314.53125</v>
       </c>
       <c r="G29">
         <v>339200.46875</v>
@@ -6844,7 +6844,7 @@
         <v>262783.25</v>
       </c>
       <c r="F30">
-        <v>316818.59375</v>
+        <v>339314</v>
       </c>
       <c r="G30">
         <v>339201.0625</v>
@@ -6897,7 +6897,7 @@
         <v>282850.8125</v>
       </c>
       <c r="F31">
-        <v>349048.96875</v>
+        <v>339312</v>
       </c>
       <c r="G31">
         <v>339200.375</v>
@@ -6950,7 +6950,7 @@
         <v>239532.859375</v>
       </c>
       <c r="F32">
-        <v>357366.375</v>
+        <v>339314.125</v>
       </c>
       <c r="G32">
         <v>339197.5625</v>
@@ -7003,7 +7003,7 @@
         <v>239107.65625</v>
       </c>
       <c r="F33">
-        <v>342490.9375</v>
+        <v>339319.21875</v>
       </c>
       <c r="G33">
         <v>339204.0625</v>
@@ -7056,7 +7056,7 @@
         <v>308591.59375</v>
       </c>
       <c r="F34">
-        <v>362806.875</v>
+        <v>339321.65625</v>
       </c>
       <c r="G34">
         <v>339233.84375</v>
